--- a/tbl打包工具/excel/zhouConfig.xlsx
+++ b/tbl打包工具/excel/zhouConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,72 +62,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治雒阳，共7郡39县204万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扬州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治历阳，后移治寿春，共6郡37县204万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>益州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治雒县，后移治成都，共7郡37县204万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幽州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治蓟县，共9郡32县134万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治龙编，后移治番禺，共6郡23县88万人口</t>
-  </si>
-  <si>
     <t>荆州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治汉寿，后移治襄阳，共7郡46县218万人口</t>
-  </si>
-  <si>
     <t>凉州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治陇县，共6郡29县68万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>并州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治晋阳，共5郡22县61万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冀州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治邺县，后移治信都，共7郡37县244万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,22 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治临菑，共6郡25县179人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治郯县，后移治彭城，共5郡22县134人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治昌邑，共6郡27县184万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治谯县，共6郡35县178万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>capital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +119,58 @@
   </si>
   <si>
     <t>首府（城池ID字符串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治河南尹雒阳，共7郡39县204万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治广阳郡蓟县，共9郡32县134万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治汉阳郡陇县，共6郡29县68万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治太原郡晋阳，共5郡22县61万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治齐国临菑，共6郡25县179人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治九江郡历阳，后移治九江郡寿春，游戏中州治为历阳，共6郡37县204万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治广汉郡雒县，后移治蜀郡成都，游戏中州治为成都，共7郡37县204万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治交趾郡龙编，后移治南海郡番禺，游戏中州治为龙编，共6郡23县88万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治武陵郡汉寿，后移治南郡襄阳，游戏中州治为汉寿，共7郡46县218万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治东海郡郯县，后移治彭城郡彭城，游戏中州治为郯县，共5郡22县134人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治魏郡邺县，后移治安平国信都，游戏中州治为信都，共7郡37县244万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治山阳郡昌邑，共6郡27县184万人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州治沛国谯县，共6郡35县178万人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +528,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" activeCellId="1" sqref="E17 E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -568,7 +570,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -576,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -585,7 +587,7 @@
         <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -593,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -610,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -627,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -644,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -661,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -678,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -695,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -712,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -729,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
@@ -738,7 +740,7 @@
         <v>1101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -746,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -763,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -824,10 +826,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/zhouConfig.xlsx
+++ b/tbl打包工具/excel/zhouConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,13 +172,176 @@
   <si>
     <t>州治沛国谯县，共6郡35县178万人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战国末年：公元前221年，估计全国总人口2000万。</t>
+  </si>
+  <si>
+    <t>西汉：公元2年，汉平帝元始2年，全国有户1223万，总人口5959.4978万。</t>
+  </si>
+  <si>
+    <t>东汉：公元57年，汉光武帝建武中元2年，全国有户427.9634万，总人口2100万。</t>
+  </si>
+  <si>
+    <t>东汉：公元156年，汉桓帝永寿2年，全国有户1067.7960万，总人口5647.6856万。</t>
+  </si>
+  <si>
+    <t>三国：魏：公元263年，魏元帝景元4年，全国有户66.3423万，总人口443。</t>
+  </si>
+  <si>
+    <t>三国：蜀：公元263年，蜀汉后主炎兴元年，全国有户28万，总人口94万。</t>
+  </si>
+  <si>
+    <t>三国：吴：公元280年，吴主皓天纪4年，全国有户52.3万，总人口200万。</t>
+  </si>
+  <si>
+    <t>西晋：公元280年，晋武帝太康元年，全国有户245.984万，总人口1616.3863万。</t>
+  </si>
+  <si>
+    <t>隋：公元609年，隋炀帝大业5年，全国有户890.7536万，总人口4601.9956万。</t>
+  </si>
+  <si>
+    <t>唐：公元649年，唐太宗贞观22年，全国有户300万。</t>
+  </si>
+  <si>
+    <t>唐：公元755年，唐玄宗天宝14年，全国有户891.4709万，总人口5291.9309万。</t>
+  </si>
+  <si>
+    <t>唐：公元764年，唐代宗广德2年，全国有户293.3125万，总人口1690万。</t>
+  </si>
+  <si>
+    <t>宋：公元996年，宋太宗至道2年，全国有户457.4257万。</t>
+  </si>
+  <si>
+    <t>元：公元1291年，元世祖至元28年，全国有户1343.0332万，总人口5984.8964万。</t>
+  </si>
+  <si>
+    <t>明：公元1381年，明太祖洪武14年，全国有户1065.4362万，总人口5987万。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清：公元1652年，清世祖顺治9年，全国总人口1448.3858万。</t>
+  </si>
+  <si>
+    <t>清：公元1741年，清高宗乾隆6年，全国总人口14341.1559万。</t>
+  </si>
+  <si>
+    <t>民国：公元1947年，民国36年，全国总人口46100万。</t>
+  </si>
+  <si>
+    <t>汝南郡（领37县，今驻马店周口阜阳一带，治所平舆）211万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南阳郡（领36县，今南阳平顶山一带，治所宛县）243万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南尹（领21县，今洛阳郑州开封一带。治所雒阳）101万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫章郡（领21县，今江西一带，治所南昌）166万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平-清平国（领13+7县，今衡水一带。治所信都）141万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原郡（领10县，今德州聊城一带。治所平原）人口100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>河内郡（领18县，今焦作新乡一带。治所怀县）80万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海国（领18县，今淮坊青岛一带。治所剧县）85万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀郡（领11+4县，今成都一带，治所成都）人口182万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳国（领17县，今宿迁淮安一带。治所下邳）61万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留郡（领17县，今开封新乡一带。治所陈留，今河南开封县陈留）86万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>颍川郡（领17县，今许昌漯河一带，治所阳翟）143万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郡（领17县，今襄阳荆州宜昌一带，治所江陵）74万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹阳郡（领16县，今南京镇江常州宣城黄山一带，治所宛陵）63万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钜鹿郡（领15县，今邢台邯郸一带。治所廮陶）60万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济北-东郡（领15+5县，今濮阳聊城德州一带。治所濮阳，今河南濮阳庆祖北）83万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙郡（领13县，今长沙萍乡一带，治所临湘）人口105万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴陵郡（领14县，今重庆一带，治所江州）人口108万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏郡（领15县，今安阳邯郸一带。治所邺县）69万人口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>勃海郡（领8县，今沧州滨州一带。治所南皮）人口150万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山阳郡（领10县，今菏泽济宁一带。治所昌邑）人口60万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆尹(领10县，今西安商洛一带。治所长安）人口5万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉领司隶、凉州、上党郡、河西-上郡、陈留郡、颍川郡、南阳郡，共18郡90县422万人口，都城雒阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵领幽州、冀州（除魏郡-赵国）、五原-云中-朔方郡、雁门-定襄郡、太原郡、平原郡，共19郡81县423万人口，都城南皮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏领兖州（除陈留）、青州（除平原）、魏郡、梁国、鲁国、沛国，共15郡66县427万人口，都城昌邑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴领扬州、徐州（除琅玡）、汝南郡、陈国、江夏郡，共13郡74县423万人口，都城秣陵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀领益州、交州、荆州（除南阳江夏），共18郡90县421万人口，都城成都</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +356,25 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,11 +399,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -786,58 +974,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="78.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="111.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D41" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D43" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D46" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D47" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/zhouConfig.xlsx
+++ b/tbl打包工具/excel/zhouConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>司隶州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扬州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,226 +118,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州治河南尹雒阳，共7郡39县204万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治广阳郡蓟县，共9郡32县134万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治汉阳郡陇县，共6郡29县68万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治太原郡晋阳，共5郡22县61万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治齐国临菑，共6郡25县179人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治九江郡历阳，后移治九江郡寿春，游戏中州治为历阳，共6郡37县204万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治广汉郡雒县，后移治蜀郡成都，游戏中州治为成都，共7郡37县204万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治交趾郡龙编，后移治南海郡番禺，游戏中州治为龙编，共6郡23县88万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治武陵郡汉寿，后移治南郡襄阳，游戏中州治为汉寿，共7郡46县218万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治东海郡郯县，后移治彭城郡彭城，游戏中州治为郯县，共5郡22县134人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治魏郡邺县，后移治安平国信都，游戏中州治为信都，共7郡37县244万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治山阳郡昌邑，共6郡27县184万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>州治沛国谯县，共6郡35县178万人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战国末年：公元前221年，估计全国总人口2000万。</t>
-  </si>
-  <si>
-    <t>西汉：公元2年，汉平帝元始2年，全国有户1223万，总人口5959.4978万。</t>
-  </si>
-  <si>
-    <t>东汉：公元57年，汉光武帝建武中元2年，全国有户427.9634万，总人口2100万。</t>
-  </si>
-  <si>
-    <t>东汉：公元156年，汉桓帝永寿2年，全国有户1067.7960万，总人口5647.6856万。</t>
-  </si>
-  <si>
-    <t>三国：魏：公元263年，魏元帝景元4年，全国有户66.3423万，总人口443。</t>
-  </si>
-  <si>
-    <t>三国：蜀：公元263年，蜀汉后主炎兴元年，全国有户28万，总人口94万。</t>
-  </si>
-  <si>
-    <t>三国：吴：公元280年，吴主皓天纪4年，全国有户52.3万，总人口200万。</t>
-  </si>
-  <si>
-    <t>西晋：公元280年，晋武帝太康元年，全国有户245.984万，总人口1616.3863万。</t>
-  </si>
-  <si>
-    <t>隋：公元609年，隋炀帝大业5年，全国有户890.7536万，总人口4601.9956万。</t>
-  </si>
-  <si>
-    <t>唐：公元649年，唐太宗贞观22年，全国有户300万。</t>
-  </si>
-  <si>
-    <t>唐：公元755年，唐玄宗天宝14年，全国有户891.4709万，总人口5291.9309万。</t>
-  </si>
-  <si>
-    <t>唐：公元764年，唐代宗广德2年，全国有户293.3125万，总人口1690万。</t>
-  </si>
-  <si>
-    <t>宋：公元996年，宋太宗至道2年，全国有户457.4257万。</t>
-  </si>
-  <si>
-    <t>元：公元1291年，元世祖至元28年，全国有户1343.0332万，总人口5984.8964万。</t>
-  </si>
-  <si>
-    <t>明：公元1381年，明太祖洪武14年，全国有户1065.4362万，总人口5987万。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>清：公元1652年，清世祖顺治9年，全国总人口1448.3858万。</t>
-  </si>
-  <si>
-    <t>清：公元1741年，清高宗乾隆6年，全国总人口14341.1559万。</t>
-  </si>
-  <si>
-    <t>民国：公元1947年，民国36年，全国总人口46100万。</t>
-  </si>
-  <si>
-    <t>汝南郡（领37县，今驻马店周口阜阳一带，治所平舆）211万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南阳郡（领36县，今南阳平顶山一带，治所宛县）243万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南尹（领21县，今洛阳郑州开封一带。治所雒阳）101万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>豫章郡（领21县，今江西一带，治所南昌）166万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安平-清平国（领13+7县，今衡水一带。治所信都）141万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>平原郡（领10县，今德州聊城一带。治所平原）人口100万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>河内郡（领18县，今焦作新乡一带。治所怀县）80万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北海国（领18县，今淮坊青岛一带。治所剧县）85万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜀郡（领11+4县，今成都一带，治所成都）人口182万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下邳国（领17县，今宿迁淮安一带。治所下邳）61万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留郡（领17县，今开封新乡一带。治所陈留，今河南开封县陈留）86万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>颍川郡（领17县，今许昌漯河一带，治所阳翟）143万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南郡（领17县，今襄阳荆州宜昌一带，治所江陵）74万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>丹阳郡（领16县，今南京镇江常州宣城黄山一带，治所宛陵）63万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钜鹿郡（领15县，今邢台邯郸一带。治所廮陶）60万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>济北-东郡（领15+5县，今濮阳聊城德州一带。治所濮阳，今河南濮阳庆祖北）83万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙郡（领13县，今长沙萍乡一带，治所临湘）人口105万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴陵郡（领14县，今重庆一带，治所江州）人口108万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏郡（领15县，今安阳邯郸一带。治所邺县）69万人口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>勃海郡（领8县，今沧州滨州一带。治所南皮）人口150万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>山阳郡（领10县，今菏泽济宁一带。治所昌邑）人口60万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>京兆尹(领10县，今西安商洛一带。治所长安）人口5万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉领司隶、凉州、上党郡、河西-上郡、陈留郡、颍川郡、南阳郡，共18郡90县422万人口，都城雒阳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵领幽州、冀州（除魏郡-赵国）、五原-云中-朔方郡、雁门-定襄郡、太原郡、平原郡，共19郡81县423万人口，都城南皮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏领兖州（除陈留）、青州（除平原）、魏郡、梁国、鲁国、沛国，共15郡66县427万人口，都城昌邑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴领扬州、徐州（除琅玡）、汝南郡、陈国、江夏郡，共13郡74县423万人口，都城秣陵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜀领益州、交州、荆州（除南阳江夏），共18郡90县421万人口，都城成都</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>司隶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司隶（州治雒阳，共7郡34县75.6万户人）,包括郡城：河南尹、河内郡、河东郡、弘农郡、京兆尹、左冯翊、右扶风，关隘：散关、斜谷关、子午关、潼关、蒲坂津、函谷关、平津渡、箕关、虎牢关、太谷关、武关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交州（州治龙编，后移治番禺，共6郡21县44.5万户人）,包括郡城：南海郡、苍梧郡、郁林郡、合浦郡、交趾郡、九真郡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州（州治历阳，后移治建邺，共9郡42县105.8万户人）,包括郡城：丹阳郡、淮南郡、九江郡、庐江郡、吴郡、会稽郡、豫章郡、鄱阳郡、临海郡，关隘：濡须口、湖口、北固关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益州（州治雒县，后移治成都，共11郡41县96.7万户人）,包括郡城：蜀郡、广汉郡、汉中郡、上庸郡、巴西郡、巴郡、犍为郡、朱提郡、牂牁郡、益州郡、永昌郡，关隘：扞关、剑门关、白水关、阳平关、箕谷关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽州（州治蓟县，共10郡32县43.5万户人）,包括郡城：广阳郡、涿郡、渔阳郡、上谷郡、代郡、右北平、辽西郡、辽东郡、乐浪郡、玄菟郡，关隘：居庸关、卢龙塞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆州（州治汉寿，共8郡41县102.2万户人）,包括郡城：武陵郡、南郡、襄阳郡、南阳郡、江夏郡、长沙郡、桂阳郡、零陵郡，关隘：油江口、三江口、汉津口、陆口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉州（州治陇县，后移治冀城，共9郡29县38.2万户人）,包括郡城：汉阳郡、陇西郡、金城郡、武威郡、张掖郡、酒泉郡、北地郡、安定郡、武都郡，关隘：萧关、玉门关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并州（州治晋阳，共6郡21县30.6万户人）,包括郡城：太原郡、上党郡、西河郡、上郡、云中郡、雁门郡，关隘：雁门关、故关、壶关、孟门渡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀州（州治邺县，后移治信都，共9郡37县90.8万）,包括郡城：信都郡、渤海郡、河间郡、中山国、常山郡、钜鹿郡、赵郡、魏郡、清河郡，关隘：延津口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青州（州治临菑，共6郡26县63.6万户人）,包括郡城：齐郡、济南郡、乐安郡、平原郡、北海郡、东莱郡，关隘：仓亭津。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州（州治郯县，共5郡25县47.6万户人）,包括郡城：东海郡、琅玡郡、下邳郡、广陵郡、彭城郡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兖州（州治昌邑，共7郡27县66.2万户人）,包括郡城：山阳郡、济北郡、东平郡、济阴郡、陈留郡、东郡、泰山郡，关隘：官渡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫州（州治谯县，共7郡34县104.7万户人）,包括郡城：谯郡、汝南郡、陈郡、梁郡、沛郡、颍川郡、鲁郡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下辖郡城及关隘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207;208;209;210;211;212;213;214;319;9009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>216;217;218;219;220;221;5004;9003;9004;9005;9006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300;301;302;303;304;305;9007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306;307;308;309;310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312;313;314;315;316;317;318;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320;321;322;323;324;325;326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;201;202;203;204;205;206;5001;5002;5003;9001;9002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403;404;405;406;407;9010;9011;9012;9013;9014;9015;9016;9017;9018;9019;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;502;503;504;505;506;507;508;509;5005;5006;5007;5008;9022;9023;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410;411;601;602;603;604;605;606;607;608;609;5009;9021;9025;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>408;409;701;702;703;704;705;706;9027;9028;9029;9030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>311;801;802;803;804;805;806;807;808;5010;5011;5012;9031;9032;9033;9034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;902;903;904;905;906;5013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,25 +257,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,18 +281,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,10 +603,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="99.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="79" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,230 +618,272 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>201</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>802</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>304</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>604</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>402</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>505</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>906</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>606</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>703</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>702</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>509</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>802</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>905</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>1006</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>1101</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>1205</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>1304</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -974,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,268 +907,54 @@
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="111.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D27" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D29" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D30" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D33" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D35" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D36" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D37" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D40" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D41" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D43" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D44" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D46" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D47" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
